--- a/Table_description.xlsx
+++ b/Table_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leova\Desktop\Projetos\05_modelo_risco_de_credito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072F6959-EA3A-4C21-B666-71FDE0D64809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B2E93A-90E3-4F22-8BAB-599398AA024C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="19200" windowWidth="16200" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1786,7 +1786,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1847,7 +1847,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2189,15 +2189,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.5703125" style="15" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="152.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="17" customWidth="1"/>
@@ -4165,7 +4165,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="2" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>204</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="2" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>204</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>204</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>204</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="2" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>204</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" s="2" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>204</v>
       </c>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="F132" s="16"/>
     </row>
-    <row r="133" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>204</v>
       </c>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F133" s="16"/>
     </row>
-    <row r="134" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>204</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="F134" s="16"/>
     </row>
-    <row r="135" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>204</v>
       </c>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="F135" s="16"/>
     </row>
-    <row r="136" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>204</v>
       </c>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="F136" s="16"/>
     </row>
-    <row r="137" spans="1:6" s="2" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>204</v>
       </c>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="F137" s="16"/>
     </row>
-    <row r="138" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>204</v>
       </c>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="F139" s="16"/>
     </row>
-    <row r="140" spans="1:6" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>204</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" s="5" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>298</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>298</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="177" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>298</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>298</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="179" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>298</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="180" spans="1:5" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" s="5" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>298</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>298</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="182" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>298</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>298</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="184" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>298</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="185" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>298</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="186" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>298</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="187" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>298</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>298</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>298</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>298</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="191" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
         <v>298</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="192" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>298</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="193" spans="1:5" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" s="5" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>298</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>298</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>298</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="196" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>298</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="197" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>298</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>298</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="199" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
         <v>298</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
         <v>298</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
         <v>298</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="202" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>298</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="203" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>298</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="204" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>298</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="205" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>298</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
         <v>298</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" s="5" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
         <v>298</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" s="5" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
         <v>298</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="209" spans="1:5" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" s="5" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>298</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="210" spans="1:5" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" s="5" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
         <v>298</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" s="5" customFormat="1" ht="56.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>298</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="212" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" s="5" customFormat="1" ht="37.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>298</v>
       </c>
@@ -5718,7 +5718,7 @@
   <autoFilter ref="A1:F220" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="previous_application.csv"/>
+        <filter val="bureau.csv"/>
       </filters>
     </filterColumn>
   </autoFilter>
